--- a/CI-DB-EXCEL/missiontbl.xlsx
+++ b/CI-DB-EXCEL/missiontbl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trusha\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trusha\OneDrive\Desktop\TATVASOFT\CI-DB-EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -391,12 +391,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
